--- a/docs/unit2/07_reinforced/underwater_slope_input.xlsx
+++ b/docs/unit2/07_reinforced/underwater_slope_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/14. reinforced slopes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955A65B6-E30A-4448-8B86-AFE11B192363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4F230-FB58-034E-8C19-0EC23F01FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="27140" windowHeight="22800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28240" yWindow="1740" windowWidth="29940" windowHeight="23780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,8 +715,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -958,7 +958,7 @@
         <f>B12</f>
         <v>-8</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D21" s="3">
